--- a/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
+++ b/openbis/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-chained-sample-properties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivalued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -178,7 +184,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -224,6 +230,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -286,7 +300,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,15 +341,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -343,15 +369,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,17 +394,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -438,7 +464,7 @@
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -469,11 +495,16 @@
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
@@ -481,46 +512,59 @@
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
+      <c r="D5" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="K6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
     <row r="8" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>0</v>
@@ -563,10 +607,10 @@
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>10</v>
@@ -579,7 +623,7 @@
       </c>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="3" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,11 +654,16 @@
       <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
@@ -622,87 +671,103 @@
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
+      <c r="D12" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>22</v>
+      <c r="D14" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="K14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="A15" s="16"/>
     </row>
     <row r="16" s="3" customFormat="true" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -723,22 +788,22 @@
       <c r="G17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>34</v>
+      <c r="A18" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="8" t="s">
@@ -751,163 +816,199 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="18" t="s">
         <v>20</v>
       </c>
+      <c r="K19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="A20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="B20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="E20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="16" t="s">
-        <v>23</v>
+      <c r="H20" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
+      <c r="K20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
+      <c r="B21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="16" t="s">
-        <v>40</v>
+      <c r="H21" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
+      <c r="K21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>43</v>
       </c>
+      <c r="B22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>45</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="16" t="s">
-        <v>42</v>
+      <c r="H22" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
+      <c r="K22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="A23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="16" t="s">
-        <v>45</v>
+      <c r="H23" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
+      <c r="K23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>22</v>
+      <c r="D24" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
